--- a/JK/XL/final.xlsx
+++ b/JK/XL/final.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>(MC)</t>
   </si>
@@ -53,9 +53,6 @@
     <t>1.Chamar etc.</t>
   </si>
   <si>
-    <t>1.Doom etc.</t>
-  </si>
-  <si>
     <t>1.Generic Castes etc.</t>
   </si>
   <si>
@@ -65,15 +62,9 @@
     <t>1.Hindus</t>
   </si>
   <si>
-    <t>1.Jammu</t>
-  </si>
-  <si>
     <t>1.Kargil (NAC)</t>
   </si>
   <si>
-    <t>1.Kathua</t>
-  </si>
-  <si>
     <t>1.Kishtwar (NAC)</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>1.Muslims</t>
   </si>
   <si>
-    <t>1.Pampore</t>
-  </si>
-  <si>
     <t>1.Punch (MC)</t>
   </si>
   <si>
@@ -119,9 +107,6 @@
     <t>2.Balti</t>
   </si>
   <si>
-    <t>2.Bari Brahmana (NAC)</t>
-  </si>
-  <si>
     <t>2.Bijbehara (NAC)</t>
   </si>
   <si>
@@ -158,9 +143,6 @@
     <t>2.Hindus</t>
   </si>
   <si>
-    <t>2.Hiranagar (NAC)</t>
-  </si>
-  <si>
     <t>2.Katra (NAC)</t>
   </si>
   <si>
@@ -173,12 +155,6 @@
     <t>2.Nowshehra (NAC)</t>
   </si>
   <si>
-    <t>2.Pulwama (NAC)</t>
-  </si>
-  <si>
-    <t>2.Sikhs</t>
-  </si>
-  <si>
     <t>2.Sopore (TC)</t>
   </si>
   <si>
@@ -203,9 +179,6 @@
     <t>3.Changpa</t>
   </si>
   <si>
-    <t>3.Chura</t>
-  </si>
-  <si>
     <t>3.Doom etc.</t>
   </si>
   <si>
@@ -224,24 +197,12 @@
     <t>3.Hindus</t>
   </si>
   <si>
-    <t>3.Jammu (CB)</t>
-  </si>
-  <si>
     <t>3.Megh etc.</t>
   </si>
   <si>
-    <t>3.Muslims</t>
-  </si>
-  <si>
-    <t>3.Parole (NAC)</t>
-  </si>
-  <si>
     <t>3.Reasi (NAC)</t>
   </si>
   <si>
-    <t>3.Shupiyan (NAC)</t>
-  </si>
-  <si>
     <t>3.Sikhs</t>
   </si>
   <si>
@@ -260,9 +221,6 @@
     <t>Below Primary</t>
   </si>
   <si>
-    <t>Below primary</t>
-  </si>
-  <si>
     <t>Bus services</t>
   </si>
   <si>
@@ -287,15 +245,24 @@
     <t>District Doda (09), Jammu &amp; Kashmir (01)</t>
   </si>
   <si>
+    <t>District Jammu (13), Jammu &amp; Kashmir (01)</t>
+  </si>
+  <si>
     <t>District Kargil (08), Jammu &amp; Kashmir (01)</t>
   </si>
   <si>
+    <t>District Kathua (14), Jammu &amp; Kashmir (01)</t>
+  </si>
+  <si>
     <t>District Kupwara (01), Jammu &amp; Kashmir (01)</t>
   </si>
   <si>
     <t>District Leh (Ladakh) (07), Jammu &amp; Kashmir (01)</t>
   </si>
   <si>
+    <t>District Pulwama (05), Jammu &amp; Kashmir (01)</t>
+  </si>
+  <si>
     <t>District Punch (11), Jammu &amp; Kashmir (01)</t>
   </si>
   <si>
@@ -332,9 +299,6 @@
     <t>Graduate and Above</t>
   </si>
   <si>
-    <t>Graduate and above</t>
-  </si>
-  <si>
     <t>Growth (1991 - 2001)</t>
   </si>
   <si>
@@ -401,15 +365,9 @@
     <t>Percentage - SC to total</t>
   </si>
   <si>
-    <t>Percentage to total population</t>
-  </si>
-  <si>
     <t>Percentage to total population (ST)</t>
   </si>
   <si>
-    <t>Permanent</t>
-  </si>
-  <si>
     <t>Permanent House</t>
   </si>
   <si>
@@ -506,9 +464,6 @@
     <t>Secondary/Sr Secondary schools</t>
   </si>
   <si>
-    <t>Semi-permanent</t>
-  </si>
-  <si>
     <t>Semi-permanent House</t>
   </si>
   <si>
@@ -518,31 +473,19 @@
     <t>Sex ratio (females per 1000 males)</t>
   </si>
   <si>
-    <t>Temporary</t>
-  </si>
-  <si>
     <t>Temporary House</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Total Educated</t>
   </si>
   <si>
     <t>Total Inhabited Villages</t>
   </si>
   <si>
-    <t>Total inhabited villages</t>
-  </si>
-  <si>
     <t>Total workers</t>
   </si>
   <si>
     <t>Urban</t>
-  </si>
-  <si>
-    <t>Without level</t>
   </si>
 </sst>
 </file>
@@ -974,244 +917,244 @@
   <sheetData>
     <row spans="1:80" r="1">
       <c r="A1" t="s" s="2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="G1" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="I1" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="D1" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="J1" t="s" s="2">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>153</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>122</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>109</v>
+      </c>
+      <c r="AA1" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="R1" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>170</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>84</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>136</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>121</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="AB1" t="s" s="2">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="AC1" t="s" s="2">
         <v>4</v>
       </c>
       <c r="AD1" t="s" s="2">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="2">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF1" t="s" s="2">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="2">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AH1" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AL1" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM1" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AN1" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AQ1" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AR1" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AS1" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AT1" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AU1" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AV1" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AW1" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AX1" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AY1" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AZ1" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="BA1" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="BB1" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="BC1" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="BD1" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="BE1" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="BF1" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="BG1" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="BH1" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="BI1" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="BJ1" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="BK1" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="BL1" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="BM1" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="BN1" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="BO1" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="BP1" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="BQ1" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="BR1" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="BT1" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="BU1" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="BV1" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="BW1" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="BX1" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AI1" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="AK1" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AL1" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM1" t="s" s="2">
+      <c r="BY1" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="BZ1" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="CA1" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AP1" t="s" s="2">
+      <c r="CB1" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AQ1" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AR1" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AS1" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AT1" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AU1" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AV1" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AW1" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AX1" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AY1" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AZ1" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="BA1" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="BB1" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="BC1" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="BD1" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="BE1" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="BF1" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="BG1" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="BH1" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="BI1" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="BJ1" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="BK1" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="BL1" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="BM1" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="BN1" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="BO1" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="BP1" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="BQ1" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="BR1" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="BS1" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="BT1" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="BU1" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="BV1" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="BW1" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="BX1" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="BY1" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="BZ1" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="CA1" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="CB1" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="CC1" t="s" s="2"/>
       <c r="CD1" t="s" s="2"/>
@@ -1221,7 +1164,7 @@
     </row>
     <row spans="1:80" r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" t="n">
         <v>650393</v>
@@ -1335,61 +1278,61 @@
         <v>54</v>
       </c>
       <c r="AM2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AN2" t="n">
         <v>8</v>
       </c>
       <c r="AO2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AP2" t="n">
         <v>4</v>
       </c>
       <c r="AQ2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR2" t="n">
         <v>633263</v>
       </c>
       <c r="AS2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT2" t="n">
         <v>12708</v>
       </c>
       <c r="AU2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV2" t="n">
         <v>3454</v>
       </c>
       <c r="AW2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>49576</v>
       </c>
       <c r="AY2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ2" t="n">
         <v>1766</v>
       </c>
       <c r="BA2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
         <v>69</v>
       </c>
       <c r="BC2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>14857</v>
       </c>
       <c r="BE2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BF2" t="n">
         <v>10638</v>
@@ -1463,7 +1406,7 @@
     </row>
     <row spans="1:80" r="3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B3" t="n">
         <v>1169780</v>
@@ -1577,49 +1520,49 @@
         <v>259</v>
       </c>
       <c r="AM3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AN3" t="n">
         <v>65</v>
       </c>
       <c r="AO3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP3" t="n">
         <v>12</v>
       </c>
       <c r="AQ3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR3" t="n">
         <v>1141162</v>
       </c>
       <c r="AS3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT3" t="n">
         <v>15191</v>
       </c>
       <c r="AU3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV3" t="n">
         <v>12141</v>
       </c>
       <c r="AW3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX3" t="n">
         <v>52170</v>
       </c>
       <c r="AY3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="AZ3" t="n">
         <v>26066</v>
       </c>
       <c r="BA3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BB3" t="n">
         <v>3744</v>
@@ -1631,13 +1574,13 @@
         <v>61830</v>
       </c>
       <c r="BE3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="BF3" t="n">
         <v>52852</v>
       </c>
       <c r="BG3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="BH3" t="n">
         <v>25795</v>
@@ -1705,7 +1648,7 @@
     </row>
     <row spans="1:80" r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B4" t="n">
         <v>1202447</v>
@@ -1819,67 +1762,67 @@
         <v>472</v>
       </c>
       <c r="AM4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AN4" t="n">
         <v>393</v>
       </c>
       <c r="AO4" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP4" t="n">
         <v>65</v>
       </c>
       <c r="AQ4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>1138175</v>
       </c>
       <c r="AS4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT4" t="n">
         <v>48853</v>
       </c>
       <c r="AU4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV4" t="n">
         <v>12967</v>
       </c>
       <c r="AW4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX4" t="n">
         <v>38788</v>
       </c>
       <c r="AY4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ4" t="n">
         <v>3115</v>
       </c>
       <c r="BA4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BB4" t="n">
         <v>1485</v>
       </c>
       <c r="BC4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>898440</v>
       </c>
       <c r="BE4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="BF4" t="n">
         <v>18923</v>
       </c>
       <c r="BG4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="BH4" t="n">
         <v>13721</v>
@@ -1947,7 +1890,7 @@
     </row>
     <row spans="1:80" r="5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B5" t="n">
         <v>629309</v>
@@ -2055,55 +1998,55 @@
         <v>403317</v>
       </c>
       <c r="AK5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL5" t="n">
         <v>396</v>
       </c>
       <c r="AM5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AN5" t="n">
         <v>56</v>
       </c>
       <c r="AO5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP5" t="n">
         <v>8</v>
       </c>
       <c r="AQ5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
         <v>617212</v>
       </c>
       <c r="AS5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT5" t="n">
         <v>6533</v>
       </c>
       <c r="AU5" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV5" t="n">
         <v>5317</v>
       </c>
       <c r="AW5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>14108</v>
       </c>
       <c r="AY5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>252</v>
       </c>
       <c r="BA5" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BB5" t="n">
         <v>181</v>
@@ -2115,13 +2058,13 @@
         <v>11767</v>
       </c>
       <c r="BE5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="BF5" t="n">
         <v>7374</v>
       </c>
       <c r="BG5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="BH5" t="n">
         <v>6295</v>
@@ -2188,250 +2131,250 @@
       </c>
     </row>
     <row spans="1:80" r="6">
-      <c r="A6" t="e">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="n">
+        <v>652607</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>335544</v>
+      </c>
+      <c r="D6" t="n">
+        <v>317063</v>
+      </c>
+      <c r="E6" t="n" s="2">
+        <v>24.49</v>
+      </c>
+      <c r="F6" t="n">
+        <v>584100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>68507</v>
+      </c>
+      <c r="H6" t="n">
+        <v>97</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J6" t="n">
+        <v>92738</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>945</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1032</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21496</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="P6" t="n">
+        <v>281518</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>178170</v>
+      </c>
+      <c r="R6" t="n">
+        <v>103348</v>
+      </c>
+      <c r="S6" t="n">
+        <v>49.6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>60.66</v>
+      </c>
+      <c r="U6" t="n">
+        <v>37.73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>281518</v>
+      </c>
+      <c r="W6" t="n">
+        <v>22280</v>
+      </c>
+      <c r="X6" t="n">
+        <v>54273</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>57661</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>53728</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>75934</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>17608</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>51519</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>181917</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>375871</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>43300</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>212599</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>151135</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>61464</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>440008</v>
+      </c>
+      <c r="AK6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B6" t="e">
+      <c r="AL6" t="n">
+        <v>69</v>
+      </c>
+      <c r="AM6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C6" t="e" s="2">
+      <c r="AN6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D6" t="e">
+      <c r="AP6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E6" t="e" s="2">
+      <c r="AR6" t="n">
+        <v>637008</v>
+      </c>
+      <c r="AS6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F6" t="e">
+      <c r="AT6" t="n">
+        <v>8787</v>
+      </c>
+      <c r="AU6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G6" t="e">
+      <c r="AV6" t="n">
+        <v>6088</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>20445</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>548</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>461</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>16963</v>
+      </c>
+      <c r="BE6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H6" t="e">
+      <c r="BF6" t="n">
+        <v>14229</v>
+      </c>
+      <c r="BG6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="I6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" t="s">
-        <v>166</v>
-      </c>
-      <c r="M6" t="s">
-        <v>165</v>
-      </c>
-      <c r="N6" t="s">
-        <v>161</v>
-      </c>
-      <c r="O6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="Q6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="R6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="S6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V6" t="s">
-        <v>169</v>
-      </c>
-      <c r="W6" t="s">
-        <v>175</v>
-      </c>
-      <c r="X6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>69</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>24</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>100</v>
+      <c r="BH6" t="n">
+        <v>12246</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>538</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>538</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>515</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>538</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>27</v>
       </c>
       <c r="BN6" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>122</v>
-      </c>
-      <c r="BQ6" t="s">
-        <v>162</v>
+        <v>3</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>473</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>179</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>64</v>
       </c>
       <c r="BR6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS6" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>181</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BV6" t="n">
         <v>135</v>
       </c>
-      <c r="BW6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CA6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="CB6" t="e">
-        <v>#N/A</v>
+      <c r="BW6" t="n" s="2">
+        <v>333</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>384</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>71</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>21</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row spans="1:80" r="7">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B7" t="n">
         <v>1172434</v>
@@ -2545,49 +2488,49 @@
         <v>303</v>
       </c>
       <c r="AM7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AN7" t="n">
         <v>214</v>
       </c>
       <c r="AO7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
       </c>
       <c r="AQ7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>1154780</v>
       </c>
       <c r="AS7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT7" t="n">
         <v>11589</v>
       </c>
       <c r="AU7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV7" t="n">
         <v>5553</v>
       </c>
       <c r="AW7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX7" t="n">
         <v>83723</v>
       </c>
       <c r="AY7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ7" t="n">
         <v>14798</v>
       </c>
       <c r="BA7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BB7" t="n">
         <v>2563</v>
@@ -2599,13 +2542,13 @@
         <v>63067</v>
       </c>
       <c r="BE7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BF7" t="n">
         <v>19794</v>
       </c>
       <c r="BG7" t="s" s="2">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="BH7" t="n">
         <v>17237</v>
@@ -2673,7 +2616,7 @@
     </row>
     <row spans="1:80" r="8">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
         <v>117232</v>
@@ -2781,19 +2724,19 @@
         <v>59107</v>
       </c>
       <c r="AK8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>240</v>
       </c>
       <c r="AM8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AN8" t="n">
         <v>221</v>
       </c>
       <c r="AO8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AP8" t="n">
         <v>58</v>
@@ -2805,13 +2748,13 @@
         <v>90618</v>
       </c>
       <c r="AS8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AT8" t="n">
         <v>16156</v>
       </c>
       <c r="AU8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AV8" t="n">
         <v>9573</v>
@@ -2823,19 +2766,19 @@
         <v>77662</v>
       </c>
       <c r="AY8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AZ8" t="n">
         <v>11243</v>
       </c>
       <c r="BA8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="BB8" t="n">
         <v>4926</v>
       </c>
       <c r="BC8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BD8" t="n">
         <v>28639</v>
@@ -2915,7 +2858,7 @@
     </row>
     <row spans="1:80" r="9">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B9" t="n" s="2">
         <v>119307</v>
@@ -3029,55 +2972,55 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AN9" t="n">
         <v>20</v>
       </c>
       <c r="AO9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AP9" t="n">
         <v>10</v>
       </c>
       <c r="AQ9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR9" t="n">
         <v>95963</v>
       </c>
       <c r="AS9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AT9" t="n">
         <v>17875</v>
       </c>
       <c r="AU9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AV9" t="n">
         <v>5142</v>
       </c>
       <c r="AW9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
         <v>37642</v>
       </c>
       <c r="AY9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>26541</v>
       </c>
       <c r="BA9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="BB9" t="n">
         <v>23418</v>
       </c>
       <c r="BC9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD9" t="n">
         <v>10657</v>
@@ -3157,7 +3100,7 @@
     </row>
     <row spans="1:80" r="10">
       <c r="A10" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B10" t="n" s="2">
         <v>691929</v>
@@ -3265,73 +3208,73 @@
         <v>373649</v>
       </c>
       <c r="AK10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="n">
         <v>50086</v>
       </c>
       <c r="AM10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AN10" t="n">
         <v>7206</v>
       </c>
       <c r="AO10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AP10" t="n">
         <v>3951</v>
       </c>
       <c r="AQ10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
         <v>400765</v>
       </c>
       <c r="AS10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT10" t="n">
         <v>286849</v>
       </c>
       <c r="AU10" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV10" t="n">
         <v>1942</v>
       </c>
       <c r="AW10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX10" t="n">
         <v>62926</v>
       </c>
       <c r="AY10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AZ10" t="n">
         <v>8129</v>
       </c>
       <c r="BA10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BB10" t="n">
         <v>6190</v>
       </c>
       <c r="BC10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BD10" t="n">
         <v>14936</v>
       </c>
       <c r="BE10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="BF10" t="n">
         <v>11320</v>
       </c>
       <c r="BG10" t="s" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="BH10" t="n">
         <v>10516</v>
@@ -3399,7 +3342,7 @@
     </row>
     <row spans="1:80" r="11">
       <c r="A11" t="s" s="2">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B11" t="n" s="2">
         <v>743509</v>
@@ -3507,73 +3450,73 @@
         <v>377079</v>
       </c>
       <c r="AK11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
         <v>50715</v>
       </c>
       <c r="AM11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="AN11" t="n">
         <v>41196</v>
       </c>
       <c r="AO11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="AP11" t="n">
         <v>35268</v>
       </c>
       <c r="AQ11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR11" t="n">
         <v>542593</v>
       </c>
       <c r="AS11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AT11" t="n">
         <v>190112</v>
       </c>
       <c r="AU11" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV11" t="n">
         <v>7723</v>
       </c>
       <c r="AW11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX11" t="n">
         <v>83017</v>
       </c>
       <c r="AY11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="AZ11" t="n">
         <v>15468</v>
       </c>
       <c r="BA11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BB11" t="n">
         <v>9758</v>
       </c>
       <c r="BC11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BD11" t="n">
         <v>56897</v>
       </c>
       <c r="BE11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="BF11" t="n">
         <v>8083</v>
       </c>
       <c r="BG11" t="s" s="2">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="BH11" t="n">
         <v>7973</v>
@@ -3641,7 +3584,7 @@
     </row>
     <row spans="1:80" r="12">
       <c r="A12" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B12" t="n" s="2">
         <v>372613</v>
@@ -3755,55 +3698,55 @@
         <v>774</v>
       </c>
       <c r="AM12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AN12" t="n">
         <v>141</v>
       </c>
       <c r="AO12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AP12" t="n">
         <v>18</v>
       </c>
       <c r="AQ12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR12" t="n">
         <v>342512</v>
       </c>
       <c r="AS12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT12" t="n">
         <v>19391</v>
       </c>
       <c r="AU12" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV12" t="n">
         <v>10297</v>
       </c>
       <c r="AW12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX12" t="n">
         <v>146623</v>
       </c>
       <c r="AY12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ12" t="n">
         <v>2328</v>
       </c>
       <c r="BA12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BB12" t="n">
         <v>37</v>
       </c>
       <c r="BC12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>23978</v>
@@ -3883,7 +3826,7 @@
     </row>
     <row spans="1:80" r="13">
       <c r="A13" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B13" t="n" s="2">
         <v>483284</v>
@@ -3997,67 +3940,67 @@
         <v>18357</v>
       </c>
       <c r="AM13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="AN13" t="n">
         <v>17130</v>
       </c>
       <c r="AO13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AP13" t="n">
         <v>1063</v>
       </c>
       <c r="AQ13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
         <v>291067</v>
       </c>
       <c r="AS13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="AT13" t="n">
         <v>180162</v>
       </c>
       <c r="AU13" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AV13" t="n">
         <v>11601</v>
       </c>
       <c r="AW13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX13" t="n">
         <v>146484</v>
       </c>
       <c r="AY13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AZ13" t="n">
         <v>13166</v>
       </c>
       <c r="BA13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="BB13" t="n">
         <v>298</v>
       </c>
       <c r="BC13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
         <v>21580</v>
       </c>
       <c r="BE13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="BF13" t="n">
         <v>4512</v>
       </c>
       <c r="BG13" t="s" s="2">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="BH13" t="n">
         <v>4088</v>
@@ -4124,487 +4067,487 @@
       </c>
     </row>
     <row spans="1:80" r="14">
-      <c r="A14" t="e" s="2">
+      <c r="A14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B14" t="n" s="2">
+        <v>1588772</v>
+      </c>
+      <c r="C14" t="n">
+        <v>850302</v>
+      </c>
+      <c r="D14" t="n">
+        <v>738470</v>
+      </c>
+      <c r="E14" t="n">
+        <v>28.39</v>
+      </c>
+      <c r="F14" t="n">
+        <v>887554</v>
+      </c>
+      <c r="G14" t="n">
+        <v>701218</v>
+      </c>
+      <c r="H14" t="n">
+        <v>394904</v>
+      </c>
+      <c r="I14" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="J14" t="n">
+        <v>304100</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>868</v>
+      </c>
+      <c r="M14" t="n">
+        <v>816</v>
+      </c>
+      <c r="N14" t="n">
+        <v>53304</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1070574</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>625605</v>
+      </c>
+      <c r="R14" t="n">
+        <v>444969</v>
+      </c>
+      <c r="S14" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="T14" t="n">
+        <v>84.45</v>
+      </c>
+      <c r="U14" t="n">
+        <v>68.55</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1070574</v>
+      </c>
+      <c r="W14" t="n">
+        <v>20757</v>
+      </c>
+      <c r="X14" t="n">
+        <v>151313</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>220259</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>261039</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>312206</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>104813</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>134773</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>343463</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>976467</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>134069</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>528331</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>434430</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>93901</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1060441</v>
+      </c>
+      <c r="AK14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B14" t="e" s="2">
+      <c r="AL14" t="n">
+        <v>173609</v>
+      </c>
+      <c r="AM14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C14" t="e">
+      <c r="AN14" t="n">
+        <v>89001</v>
+      </c>
+      <c r="AO14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D14" t="e">
+      <c r="AP14" t="n">
+        <v>56421</v>
+      </c>
+      <c r="AQ14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E14" t="e">
+      <c r="AR14" t="n">
+        <v>1366711</v>
+      </c>
+      <c r="AS14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F14" t="e">
+      <c r="AT14" t="n">
+        <v>117490</v>
+      </c>
+      <c r="AU14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G14" t="e">
+      <c r="AV14" t="n">
+        <v>90272</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>50555</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>1576</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>491</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>369959</v>
+      </c>
+      <c r="BE14" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H14" t="e">
+      <c r="BF14" t="n">
+        <v>33581</v>
+      </c>
+      <c r="BG14" t="e" s="2">
         <v>#N/A</v>
       </c>
-      <c r="I14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J14" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M14" t="s">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s">
-        <v>161</v>
-      </c>
-      <c r="O14" t="s">
-        <v>128</v>
-      </c>
-      <c r="P14" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>115</v>
-      </c>
-      <c r="R14" t="s">
-        <v>101</v>
-      </c>
-      <c r="S14" t="s">
-        <v>132</v>
-      </c>
-      <c r="T14" t="s">
-        <v>115</v>
-      </c>
-      <c r="U14" t="s">
-        <v>101</v>
-      </c>
-      <c r="V14" t="s">
-        <v>169</v>
-      </c>
-      <c r="W14" t="s">
-        <v>175</v>
-      </c>
-      <c r="X14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="BH14" t="n">
+        <v>28791</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1043</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1040</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1034</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1033</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>300</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>787</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>327</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>328</v>
+      </c>
+      <c r="BT14" t="n">
         <v>30</v>
       </c>
-      <c r="AF14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AS14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>173609</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>89001</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>56421</v>
-      </c>
-      <c r="BB14" t="s">
-        <v>67</v>
-      </c>
-      <c r="BC14" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG14" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="BH14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BI14" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ14" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL14" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM14" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN14" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO14" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP14" t="s">
-        <v>122</v>
-      </c>
-      <c r="BQ14" t="s">
-        <v>162</v>
-      </c>
-      <c r="BR14" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS14" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT14" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU14" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV14" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ14" t="s">
-        <v>130</v>
-      </c>
-      <c r="CA14" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB14" t="s">
-        <v>167</v>
+      <c r="BU14" t="n">
+        <v>62</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>431</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>752</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>821</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>228</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>74.1</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>12.9</v>
       </c>
     </row>
     <row spans="1:80" r="15">
-      <c r="A15" t="e" s="2">
+      <c r="A15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B15" t="n" s="2">
+        <v>550084</v>
+      </c>
+      <c r="C15" t="n">
+        <v>289391</v>
+      </c>
+      <c r="D15" t="n">
+        <v>260693</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="F15" t="n">
+        <v>471356</v>
+      </c>
+      <c r="G15" t="n">
+        <v>78728</v>
+      </c>
+      <c r="H15" t="n">
+        <v>127364</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="J15" t="n">
+        <v>96393</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6</v>
+      </c>
+      <c r="L15" t="n">
+        <v>901</v>
+      </c>
+      <c r="M15" t="n">
+        <v>840</v>
+      </c>
+      <c r="N15" t="n">
+        <v>34174</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="P15" t="n">
+        <v>307370</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>185654</v>
+      </c>
+      <c r="R15" t="n">
+        <v>121716</v>
+      </c>
+      <c r="S15" t="n">
+        <v>65.57</v>
+      </c>
+      <c r="T15" t="n">
+        <v>75.71</v>
+      </c>
+      <c r="U15" t="n">
+        <v>54.44</v>
+      </c>
+      <c r="V15" t="n">
+        <v>307370</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6881</v>
+      </c>
+      <c r="X15" t="n">
+        <v>56273</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>78668</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>77174</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>74150</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>14199</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>55604</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>132178</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>316216</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>46086</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>205422</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>161823</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>43599</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>344662</v>
+      </c>
+      <c r="AK15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="B15" t="e" s="2">
+      <c r="AL15" t="n">
+        <v>54857</v>
+      </c>
+      <c r="AM15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C15" t="e">
+      <c r="AN15" t="n">
+        <v>39640</v>
+      </c>
+      <c r="AO15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D15" t="e">
+      <c r="AP15" t="n">
+        <v>25330</v>
+      </c>
+      <c r="AQ15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E15" t="e">
+      <c r="AR15" t="n">
+        <v>493966</v>
+      </c>
+      <c r="AS15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F15" t="e">
+      <c r="AT15" t="n">
+        <v>44793</v>
+      </c>
+      <c r="AU15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="G15" t="e">
+      <c r="AV15" t="n">
+        <v>9152</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>15149</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>11833</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>4347</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>40931</v>
+      </c>
+      <c r="BE15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H15" t="e">
+      <c r="BF15" t="n">
+        <v>8437</v>
+      </c>
+      <c r="BG15" t="e" s="2">
         <v>#N/A</v>
       </c>
-      <c r="I15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J15" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" t="s">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s">
-        <v>161</v>
-      </c>
-      <c r="O15" t="s">
-        <v>128</v>
-      </c>
-      <c r="P15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>115</v>
-      </c>
-      <c r="R15" t="s">
-        <v>101</v>
-      </c>
-      <c r="S15" t="s">
-        <v>132</v>
-      </c>
-      <c r="T15" t="s">
-        <v>115</v>
-      </c>
-      <c r="U15" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" t="s">
-        <v>169</v>
-      </c>
-      <c r="W15" t="s">
-        <v>175</v>
-      </c>
-      <c r="X15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AH15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AJ15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AT15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>54857</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>39640</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>25330</v>
-      </c>
-      <c r="BB15" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC15" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>47</v>
-      </c>
-      <c r="BF15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BG15" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="BH15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>172</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>97</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>99</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>100</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>98</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>122</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>162</v>
+      <c r="BH15" t="n">
+        <v>7075</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>556</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>556</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>538</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>531</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>246</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>25</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>452</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>241</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>90</v>
       </c>
       <c r="BR15" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>135</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>126</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>123</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>130</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>163</v>
-      </c>
-      <c r="CB15" t="s">
-        <v>167</v>
+        <v>3</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>214</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>27</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>279</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>362</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>452</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>56</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>25.6</v>
       </c>
     </row>
     <row spans="1:80" r="16">
